--- a/专升本/第一轮课/信息安全/RSA.xlsx
+++ b/专升本/第一轮课/信息安全/RSA.xlsx
@@ -88,6 +88,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -102,14 +138,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,35 +165,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,64 +186,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,187 +240,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,16 +438,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +473,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,52 +523,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,145 +551,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,7 +1015,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1463,176 +1457,176 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>11</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>23</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>253</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>220</v>
       </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
         <v>147</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>221</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>192</v>
       </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
         <v>77</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>247</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>206</v>
       </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
         <v>173</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>13</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>299</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>264</v>
       </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
         <v>53</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>17</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>19</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>323</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>288</v>
       </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
         <v>173</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>17</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>391</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>352</v>
       </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
         <v>235</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>19</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>23</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>437</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>396</v>
       </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
         <v>317</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
